--- a/RPOTN.xlsx
+++ b/RPOTN.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
   <si>
     <t/>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>IDM DUCT TAPE KLIK</t>
+  </si>
+  <si>
+    <t>20118161</t>
+  </si>
+  <si>
+    <t>PRICE TAG PUTIH N222</t>
+  </si>
+  <si>
+    <t>20118163</t>
+  </si>
+  <si>
+    <t>PRICE TAG PROMO N338</t>
   </si>
 </sst>
 </file>
@@ -781,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1622,6 +1634,46 @@
         <v>36</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
